--- a/docs/GameDesign.xlsx
+++ b/docs/GameDesign.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="11985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="关卡" sheetId="8" r:id="rId1"/>
     <sheet name="塔" sheetId="10" r:id="rId2"/>
     <sheet name="塔-等级数值" sheetId="11" r:id="rId3"/>
-    <sheet name="英雄-士兵" sheetId="13" r:id="rId4"/>
-    <sheet name="怪物" sheetId="12" r:id="rId5"/>
-    <sheet name="战斗地图区域划分" sheetId="1" r:id="rId6"/>
-    <sheet name="战斗单位划分" sheetId="2" r:id="rId7"/>
-    <sheet name="游戏玩法" sheetId="3" r:id="rId8"/>
-    <sheet name="战斗模型" sheetId="4" r:id="rId9"/>
-    <sheet name="战斗公式" sheetId="6" r:id="rId10"/>
+    <sheet name="塔-COST" sheetId="14" r:id="rId4"/>
+    <sheet name="塔-ATK" sheetId="15" r:id="rId5"/>
+    <sheet name="塔-半径" sheetId="16" r:id="rId6"/>
+    <sheet name="英雄-士兵" sheetId="13" r:id="rId7"/>
+    <sheet name="怪物" sheetId="12" r:id="rId8"/>
+    <sheet name="战斗地图区域划分" sheetId="1" r:id="rId9"/>
+    <sheet name="战斗单位划分" sheetId="2" r:id="rId10"/>
+    <sheet name="游戏玩法" sheetId="3" r:id="rId11"/>
+    <sheet name="战斗模型" sheetId="4" r:id="rId12"/>
+    <sheet name="战斗公式" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="107">
   <si>
     <t>怪物出生点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +415,38 @@
   </si>
   <si>
     <t>COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,12 +469,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,8 +497,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,6 +587,2889 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-COST'!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-COST'!$F$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-COST'!$F$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="200736928"/>
+        <c:axId val="200714960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200736928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200714960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200714960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200736928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-ATK'!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-ATK'!$F$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-ATK'!$F$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="274991376"/>
+        <c:axId val="274991936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="274991376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274991936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="274991936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274991376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-半径'!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-半径'!$F$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'塔-半径'!$F$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="283184864"/>
+        <c:axId val="283185424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="283184864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283185424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="283185424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283184864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,7 +3738,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,6 +4038,244 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1225,7 +4390,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1351,9 +4516,409 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>1.8</v>
+      </c>
+      <c r="D2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>$B$4+(F2-1)*$B$5</f>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(G2*B$2, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:J2" si="0">ROUND(H2*C$2, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>$B$4+(F3-1)*$B$5</f>
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="1">ROUND(G3*B$2, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="2">ROUND(H3*C$2, 0)</f>
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="3">ROUND(I3*D$2, 0)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>$B$4+(F4-1)*$B$5</f>
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>1.2</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2">
+        <v>1.7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>$B$4+(F2-1)*$B$5</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(G2*B$2, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:J4" si="0">ROUND(H2*C$2, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>$B$4+(F3-1)*$B$5</f>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="1">ROUND(G3*B$2, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>$B$4+(F4-1)*$B$5</f>
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2.8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>$B$4+(F2-1)*$B$5</f>
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(G2*B$2, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:J4" si="0">ROUND(H2*C$2, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>$B$4+(F3-1)*$B$5</f>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="1">ROUND(G3*B$2, 0)</f>
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>$B$4+(F4-1)*$B$5</f>
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1439,7 +5004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1549,7 +5114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1606,242 +5171,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>